--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_100ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_100ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2527,28 +2527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4398.703106592878</v>
+        <v>4760.775897339424</v>
       </c>
       <c r="AB2" t="n">
-        <v>6018.499647525919</v>
+        <v>6513.903613349547</v>
       </c>
       <c r="AC2" t="n">
-        <v>5444.102488183127</v>
+        <v>5892.22579481236</v>
       </c>
       <c r="AD2" t="n">
-        <v>4398703.106592878</v>
+        <v>4760775.897339424</v>
       </c>
       <c r="AE2" t="n">
-        <v>6018499.64752592</v>
+        <v>6513903.613349547</v>
       </c>
       <c r="AF2" t="n">
         <v>2.215658510923613e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>71</v>
+        <v>70.83333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>5444102.488183127</v>
+        <v>5892225.79481236</v>
       </c>
     </row>
     <row r="3">
@@ -2633,28 +2633,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1554.138739901188</v>
+        <v>1749.840834470594</v>
       </c>
       <c r="AB3" t="n">
-        <v>2126.441187695023</v>
+        <v>2394.209427251955</v>
       </c>
       <c r="AC3" t="n">
-        <v>1923.496625220361</v>
+        <v>2165.709439809064</v>
       </c>
       <c r="AD3" t="n">
-        <v>1554138.739901188</v>
+        <v>1749840.834470594</v>
       </c>
       <c r="AE3" t="n">
-        <v>2126441.187695023</v>
+        <v>2394209.427251955</v>
       </c>
       <c r="AF3" t="n">
         <v>4.169521261035953e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>38</v>
+        <v>37.64166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1923496.625220361</v>
+        <v>2165709.439809064</v>
       </c>
     </row>
     <row r="4">
@@ -2739,28 +2739,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1199.307151591118</v>
+        <v>1355.856172108987</v>
       </c>
       <c r="AB4" t="n">
-        <v>1640.944954504317</v>
+        <v>1855.142230832218</v>
       </c>
       <c r="AC4" t="n">
-        <v>1484.335471127133</v>
+        <v>1678.090060030064</v>
       </c>
       <c r="AD4" t="n">
-        <v>1199307.151591118</v>
+        <v>1355856.172108987</v>
       </c>
       <c r="AE4" t="n">
-        <v>1640944.954504317</v>
+        <v>1855142.230832218</v>
       </c>
       <c r="AF4" t="n">
         <v>4.895769069444781e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>33</v>
+        <v>32.05833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1484335.471127133</v>
+        <v>1678090.060030065</v>
       </c>
     </row>
     <row r="5">
@@ -2845,28 +2845,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1033.0160787915</v>
+        <v>1179.843897846725</v>
       </c>
       <c r="AB5" t="n">
-        <v>1413.418172455513</v>
+        <v>1614.314472073084</v>
       </c>
       <c r="AC5" t="n">
-        <v>1278.523525821223</v>
+        <v>1460.24656456302</v>
       </c>
       <c r="AD5" t="n">
-        <v>1033016.0787915</v>
+        <v>1179843.897846725</v>
       </c>
       <c r="AE5" t="n">
-        <v>1413418.172455513</v>
+        <v>1614314.472073084</v>
       </c>
       <c r="AF5" t="n">
         <v>5.296938112990112e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>29.62916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1278523.525821223</v>
+        <v>1460246.56456302</v>
       </c>
     </row>
     <row r="6">
@@ -2951,28 +2951,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>944.251561286182</v>
+        <v>1081.223539263355</v>
       </c>
       <c r="AB6" t="n">
-        <v>1291.966643590604</v>
+        <v>1479.377746636162</v>
       </c>
       <c r="AC6" t="n">
-        <v>1168.663160412889</v>
+        <v>1338.188010816914</v>
       </c>
       <c r="AD6" t="n">
-        <v>944251.561286182</v>
+        <v>1081223.539263355</v>
       </c>
       <c r="AE6" t="n">
-        <v>1291966.643590604</v>
+        <v>1479377.746636162</v>
       </c>
       <c r="AF6" t="n">
         <v>5.531235901802505e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>29</v>
+        <v>28.375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1168663.160412889</v>
+        <v>1338188.010816914</v>
       </c>
     </row>
     <row r="7">
@@ -3057,28 +3057,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>930.1872179069902</v>
+        <v>1067.159195884163</v>
       </c>
       <c r="AB7" t="n">
-        <v>1272.723188504155</v>
+        <v>1460.134291549713</v>
       </c>
       <c r="AC7" t="n">
-        <v>1151.256273671532</v>
+        <v>1320.781124075557</v>
       </c>
       <c r="AD7" t="n">
-        <v>930187.2179069902</v>
+        <v>1067159.195884163</v>
       </c>
       <c r="AE7" t="n">
-        <v>1272723.188504155</v>
+        <v>1460134.291549713</v>
       </c>
       <c r="AF7" t="n">
         <v>5.572294517526863e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>29</v>
+        <v>28.16666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1151256.273671532</v>
+        <v>1320781.124075557</v>
       </c>
     </row>
   </sheetData>
@@ -3354,28 +3354,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2732.507098360223</v>
+        <v>3013.174692875798</v>
       </c>
       <c r="AB2" t="n">
-        <v>3738.73676168188</v>
+        <v>4122.758546678489</v>
       </c>
       <c r="AC2" t="n">
-        <v>3381.916972496821</v>
+        <v>3729.288257311301</v>
       </c>
       <c r="AD2" t="n">
-        <v>2732507.098360223</v>
+        <v>3013174.692875798</v>
       </c>
       <c r="AE2" t="n">
-        <v>3738736.76168188</v>
+        <v>4122758.54667849</v>
       </c>
       <c r="AF2" t="n">
         <v>3.089156008562816e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>56</v>
+        <v>55.59166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>3381916.972496822</v>
+        <v>3729288.257311301</v>
       </c>
     </row>
     <row r="3">
@@ -3460,28 +3460,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1236.169560490141</v>
+        <v>1400.671576234275</v>
       </c>
       <c r="AB3" t="n">
-        <v>1691.381728614666</v>
+        <v>1916.460643872528</v>
       </c>
       <c r="AC3" t="n">
-        <v>1529.958630304847</v>
+        <v>1733.556329790741</v>
       </c>
       <c r="AD3" t="n">
-        <v>1236169.560490141</v>
+        <v>1400671.576234275</v>
       </c>
       <c r="AE3" t="n">
-        <v>1691381.728614666</v>
+        <v>1916460.643872528</v>
       </c>
       <c r="AF3" t="n">
         <v>5.007771248037121e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>35</v>
+        <v>34.29166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1529958.630304847</v>
+        <v>1733556.329790741</v>
       </c>
     </row>
     <row r="4">
@@ -3566,28 +3566,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>980.9741438744073</v>
+        <v>1126.115061318325</v>
       </c>
       <c r="AB4" t="n">
-        <v>1342.212101173818</v>
+        <v>1540.800307585951</v>
       </c>
       <c r="AC4" t="n">
-        <v>1214.113262044304</v>
+        <v>1393.74848875676</v>
       </c>
       <c r="AD4" t="n">
-        <v>980974.1438744073</v>
+        <v>1126115.061318325</v>
       </c>
       <c r="AE4" t="n">
-        <v>1342212.101173818</v>
+        <v>1540800.30758595</v>
       </c>
       <c r="AF4" t="n">
         <v>5.712568682946048e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>31</v>
+        <v>30.0625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1214113.262044304</v>
+        <v>1393748.48875676</v>
       </c>
     </row>
     <row r="5">
@@ -3672,28 +3672,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>877.9449631205488</v>
+        <v>1023.11903495339</v>
       </c>
       <c r="AB5" t="n">
-        <v>1201.243030739727</v>
+        <v>1399.876600449453</v>
       </c>
       <c r="AC5" t="n">
-        <v>1086.598081841109</v>
+        <v>1266.274342441705</v>
       </c>
       <c r="AD5" t="n">
-        <v>877944.9631205488</v>
+        <v>1023119.03495339</v>
       </c>
       <c r="AE5" t="n">
-        <v>1201243.030739727</v>
+        <v>1399876.600449453</v>
       </c>
       <c r="AF5" t="n">
         <v>6.012622795585639e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>28.5625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1086598.081841109</v>
+        <v>1266274.342441705</v>
       </c>
     </row>
     <row r="6">
@@ -3778,28 +3778,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>879.6450941768925</v>
+        <v>1024.819166009734</v>
       </c>
       <c r="AB6" t="n">
-        <v>1203.569225055505</v>
+        <v>1402.202794765231</v>
       </c>
       <c r="AC6" t="n">
-        <v>1088.702267436224</v>
+        <v>1268.378528036819</v>
       </c>
       <c r="AD6" t="n">
-        <v>879645.0941768925</v>
+        <v>1024819.166009734</v>
       </c>
       <c r="AE6" t="n">
-        <v>1203569.225055505</v>
+        <v>1402202.794765231</v>
       </c>
       <c r="AF6" t="n">
         <v>6.01756874249728e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>29</v>
+        <v>28.5375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1088702.267436224</v>
+        <v>1268378.52803682</v>
       </c>
     </row>
   </sheetData>
@@ -4075,28 +4075,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>943.6495219918027</v>
+        <v>1112.014027888099</v>
       </c>
       <c r="AB2" t="n">
-        <v>1291.142906867935</v>
+        <v>1521.506651553026</v>
       </c>
       <c r="AC2" t="n">
-        <v>1167.91803996691</v>
+        <v>1376.296192176802</v>
       </c>
       <c r="AD2" t="n">
-        <v>943649.5219918026</v>
+        <v>1112014.027888099</v>
       </c>
       <c r="AE2" t="n">
-        <v>1291142.906867935</v>
+        <v>1521506.651553026</v>
       </c>
       <c r="AF2" t="n">
         <v>6.937411666043776e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.55</v>
       </c>
       <c r="AH2" t="n">
-        <v>1167918.03996691</v>
+        <v>1376296.192176802</v>
       </c>
     </row>
     <row r="3">
@@ -4181,28 +4181,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>805.6485322157796</v>
+        <v>955.336240051404</v>
       </c>
       <c r="AB3" t="n">
-        <v>1102.323864482393</v>
+        <v>1307.133190098695</v>
       </c>
       <c r="AC3" t="n">
-        <v>997.1196219774538</v>
+        <v>1182.382233008629</v>
       </c>
       <c r="AD3" t="n">
-        <v>805648.5322157796</v>
+        <v>955336.240051404</v>
       </c>
       <c r="AE3" t="n">
-        <v>1102323.864482393</v>
+        <v>1307133.190098695</v>
       </c>
       <c r="AF3" t="n">
         <v>7.590364833052623e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.57916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>997119.6219774538</v>
+        <v>1182382.233008629</v>
       </c>
     </row>
   </sheetData>
@@ -4478,28 +4478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1389.333850861088</v>
+        <v>1588.332172913879</v>
       </c>
       <c r="AB2" t="n">
-        <v>1900.947867831792</v>
+        <v>2173.226151250785</v>
       </c>
       <c r="AC2" t="n">
-        <v>1719.524071323014</v>
+        <v>1965.81649751747</v>
       </c>
       <c r="AD2" t="n">
-        <v>1389333.850861088</v>
+        <v>1588332.172913879</v>
       </c>
       <c r="AE2" t="n">
-        <v>1900947.867831792</v>
+        <v>2173226.151250785</v>
       </c>
       <c r="AF2" t="n">
         <v>5.130961239030988e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.45833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1719524.071323014</v>
+        <v>1965816.49751747</v>
       </c>
     </row>
     <row r="3">
@@ -4584,28 +4584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>831.7151504987911</v>
+        <v>973.8863826182699</v>
       </c>
       <c r="AB3" t="n">
-        <v>1137.989361595247</v>
+        <v>1332.514313533213</v>
       </c>
       <c r="AC3" t="n">
-        <v>1029.381254102696</v>
+        <v>1205.341017645187</v>
       </c>
       <c r="AD3" t="n">
-        <v>831715.1504987911</v>
+        <v>973886.3826182699</v>
       </c>
       <c r="AE3" t="n">
-        <v>1137989.361595247</v>
+        <v>1332514.313533213</v>
       </c>
       <c r="AF3" t="n">
         <v>6.896083646049805e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.1</v>
       </c>
       <c r="AH3" t="n">
-        <v>1029381.254102696</v>
+        <v>1205341.017645187</v>
       </c>
     </row>
     <row r="4">
@@ -4690,28 +4690,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>817.3499426952282</v>
+        <v>969.0027339133287</v>
       </c>
       <c r="AB4" t="n">
-        <v>1118.334250530172</v>
+        <v>1325.832289923737</v>
       </c>
       <c r="AC4" t="n">
-        <v>1011.60199925155</v>
+        <v>1199.296716990721</v>
       </c>
       <c r="AD4" t="n">
-        <v>817349.9426952282</v>
+        <v>969002.7339133287</v>
       </c>
       <c r="AE4" t="n">
-        <v>1118334.250530172</v>
+        <v>1325832.289923737</v>
       </c>
       <c r="AF4" t="n">
         <v>6.933946841910214e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.9375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1011601.99925155</v>
+        <v>1199296.716990721</v>
       </c>
     </row>
   </sheetData>
@@ -4987,28 +4987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>808.4943754332209</v>
+        <v>974.9484220368485</v>
       </c>
       <c r="AB2" t="n">
-        <v>1106.217672722239</v>
+        <v>1333.967442719584</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000.641810623882</v>
+        <v>1206.655462221491</v>
       </c>
       <c r="AD2" t="n">
-        <v>808494.3754332209</v>
+        <v>974948.4220368485</v>
       </c>
       <c r="AE2" t="n">
-        <v>1106217.672722239</v>
+        <v>1333967.442719584</v>
       </c>
       <c r="AF2" t="n">
         <v>8.1217891312339e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.80416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000641.810623882</v>
+        <v>1206655.462221491</v>
       </c>
     </row>
     <row r="3">
@@ -5093,28 +5093,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>812.9917555049874</v>
+        <v>979.445802108615</v>
       </c>
       <c r="AB3" t="n">
-        <v>1112.371186546835</v>
+        <v>1340.120956544181</v>
       </c>
       <c r="AC3" t="n">
-        <v>1006.20804172557</v>
+        <v>1212.221693323179</v>
       </c>
       <c r="AD3" t="n">
-        <v>812991.7555049874</v>
+        <v>979445.8021086151</v>
       </c>
       <c r="AE3" t="n">
-        <v>1112371.186546835</v>
+        <v>1340120.956544181</v>
       </c>
       <c r="AF3" t="n">
         <v>8.123106961694915e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>33.8</v>
       </c>
       <c r="AH3" t="n">
-        <v>1006208.04172557</v>
+        <v>1212221.693323179</v>
       </c>
     </row>
   </sheetData>
@@ -5390,28 +5390,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3065.901088504172</v>
+        <v>3366.77538191146</v>
       </c>
       <c r="AB2" t="n">
-        <v>4194.90112730164</v>
+        <v>4606.570609178535</v>
       </c>
       <c r="AC2" t="n">
-        <v>3794.545651292523</v>
+        <v>4166.925975600817</v>
       </c>
       <c r="AD2" t="n">
-        <v>3065901.088504172</v>
+        <v>3366775.381911459</v>
       </c>
       <c r="AE2" t="n">
-        <v>4194901.127301641</v>
+        <v>4606570.609178535</v>
       </c>
       <c r="AF2" t="n">
         <v>2.843994747850174e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>59</v>
+        <v>58.92916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3794545.651292523</v>
+        <v>4166925.975600817</v>
       </c>
     </row>
     <row r="3">
@@ -5496,28 +5496,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1316.434883444153</v>
+        <v>1491.094114796549</v>
       </c>
       <c r="AB3" t="n">
-        <v>1801.204284536478</v>
+        <v>2040.180750294293</v>
       </c>
       <c r="AC3" t="n">
-        <v>1629.299875626407</v>
+        <v>1845.468762897872</v>
       </c>
       <c r="AD3" t="n">
-        <v>1316434.883444153</v>
+        <v>1491094.114796549</v>
       </c>
       <c r="AE3" t="n">
-        <v>1801204.284536478</v>
+        <v>2040180.750294293</v>
       </c>
       <c r="AF3" t="n">
         <v>4.770156655282572e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>36</v>
+        <v>35.12916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1629299.875626407</v>
+        <v>1845468.762897872</v>
       </c>
     </row>
     <row r="4">
@@ -5602,28 +5602,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1031.624308435494</v>
+        <v>1186.933002197942</v>
       </c>
       <c r="AB4" t="n">
-        <v>1411.513890853852</v>
+        <v>1624.01409739563</v>
       </c>
       <c r="AC4" t="n">
-        <v>1276.800986182948</v>
+        <v>1469.020471258292</v>
       </c>
       <c r="AD4" t="n">
-        <v>1031624.308435494</v>
+        <v>1186933.002197942</v>
       </c>
       <c r="AE4" t="n">
-        <v>1411513.890853852</v>
+        <v>1624014.09739563</v>
       </c>
       <c r="AF4" t="n">
         <v>5.48366912631725e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>31</v>
+        <v>30.5625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1276800.986182948</v>
+        <v>1469020.471258292</v>
       </c>
     </row>
     <row r="5">
@@ -5708,28 +5708,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>901.7997893321465</v>
+        <v>1047.399554395767</v>
       </c>
       <c r="AB5" t="n">
-        <v>1233.882256363093</v>
+        <v>1433.098278331432</v>
       </c>
       <c r="AC5" t="n">
-        <v>1116.122265580422</v>
+        <v>1296.325390013545</v>
       </c>
       <c r="AD5" t="n">
-        <v>901799.7893321465</v>
+        <v>1047399.554395767</v>
       </c>
       <c r="AE5" t="n">
-        <v>1233882.256363093</v>
+        <v>1433098.278331432</v>
       </c>
       <c r="AF5" t="n">
         <v>5.850480498123127e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>28.64583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1116122.265580422</v>
+        <v>1296325.390013545</v>
       </c>
     </row>
     <row r="6">
@@ -5814,28 +5814,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>892.0944061534176</v>
+        <v>1037.592685990553</v>
       </c>
       <c r="AB6" t="n">
-        <v>1220.602922926668</v>
+        <v>1419.680088330918</v>
       </c>
       <c r="AC6" t="n">
-        <v>1104.110293089509</v>
+        <v>1284.187813234133</v>
       </c>
       <c r="AD6" t="n">
-        <v>892094.4061534175</v>
+        <v>1037592.685990553</v>
       </c>
       <c r="AE6" t="n">
-        <v>1220602.922926669</v>
+        <v>1419680.088330918</v>
       </c>
       <c r="AF6" t="n">
         <v>5.89070104327728e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>29</v>
+        <v>28.45</v>
       </c>
       <c r="AH6" t="n">
-        <v>1104110.293089509</v>
+        <v>1284187.813234133</v>
       </c>
     </row>
   </sheetData>
@@ -6111,28 +6111,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>828.4732774495676</v>
+        <v>1003.005795511447</v>
       </c>
       <c r="AB2" t="n">
-        <v>1133.553687867954</v>
+        <v>1372.356778911488</v>
       </c>
       <c r="AC2" t="n">
-        <v>1025.368914850429</v>
+        <v>1241.380974047011</v>
       </c>
       <c r="AD2" t="n">
-        <v>828473.2774495676</v>
+        <v>1003005.795511447</v>
       </c>
       <c r="AE2" t="n">
-        <v>1133553.687867954</v>
+        <v>1372356.778911488</v>
       </c>
       <c r="AF2" t="n">
         <v>8.392143968350645e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.79583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1025368.914850429</v>
+        <v>1241380.974047011</v>
       </c>
     </row>
   </sheetData>
@@ -6408,28 +6408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1961.58449146322</v>
+        <v>2191.605657042971</v>
       </c>
       <c r="AB2" t="n">
-        <v>2683.926440220124</v>
+        <v>2998.651546784138</v>
       </c>
       <c r="AC2" t="n">
-        <v>2427.776267679932</v>
+        <v>2712.464451792826</v>
       </c>
       <c r="AD2" t="n">
-        <v>1961584.49146322</v>
+        <v>2191605.65704297</v>
       </c>
       <c r="AE2" t="n">
-        <v>2683926.440220124</v>
+        <v>2998651.546784138</v>
       </c>
       <c r="AF2" t="n">
         <v>3.946134945559316e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.325</v>
       </c>
       <c r="AH2" t="n">
-        <v>2427776.267679932</v>
+        <v>2712464.451792826</v>
       </c>
     </row>
     <row r="3">
@@ -6514,28 +6514,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1012.172994417652</v>
+        <v>1175.108207901173</v>
       </c>
       <c r="AB3" t="n">
-        <v>1384.899744883231</v>
+        <v>1607.834892165684</v>
       </c>
       <c r="AC3" t="n">
-        <v>1252.726856950574</v>
+        <v>1454.385386667835</v>
       </c>
       <c r="AD3" t="n">
-        <v>1012172.994417652</v>
+        <v>1175108.207901173</v>
       </c>
       <c r="AE3" t="n">
-        <v>1384899.744883231</v>
+        <v>1607834.892165684</v>
       </c>
       <c r="AF3" t="n">
         <v>5.840100451514303e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.975</v>
       </c>
       <c r="AH3" t="n">
-        <v>1252726.856950574</v>
+        <v>1454385.386667835</v>
       </c>
     </row>
     <row r="4">
@@ -6620,28 +6620,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>851.9199400888908</v>
+        <v>995.6451116163014</v>
       </c>
       <c r="AB4" t="n">
-        <v>1165.634446084828</v>
+        <v>1362.285566475694</v>
       </c>
       <c r="AC4" t="n">
-        <v>1054.387930528711</v>
+        <v>1232.270943991054</v>
       </c>
       <c r="AD4" t="n">
-        <v>851919.9400888908</v>
+        <v>995645.1116163014</v>
       </c>
       <c r="AE4" t="n">
-        <v>1165634.446084828</v>
+        <v>1362285.566475694</v>
       </c>
       <c r="AF4" t="n">
         <v>6.412861435094633e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.12083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1054387.930528712</v>
+        <v>1232270.943991054</v>
       </c>
     </row>
     <row r="5">
@@ -6726,28 +6726,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>853.2491928524609</v>
+        <v>996.9743643798714</v>
       </c>
       <c r="AB5" t="n">
-        <v>1167.453188358438</v>
+        <v>1364.104308749304</v>
       </c>
       <c r="AC5" t="n">
-        <v>1056.033094592349</v>
+        <v>1233.916108054691</v>
       </c>
       <c r="AD5" t="n">
-        <v>853249.1928524609</v>
+        <v>996974.3643798714</v>
       </c>
       <c r="AE5" t="n">
-        <v>1167453.188358438</v>
+        <v>1364104.308749304</v>
       </c>
       <c r="AF5" t="n">
         <v>6.42003215163398e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>29.0875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1056033.094592349</v>
+        <v>1233916.108054691</v>
       </c>
     </row>
   </sheetData>
@@ -7023,28 +7023,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2441.220546563201</v>
+        <v>2701.765822847029</v>
       </c>
       <c r="AB2" t="n">
-        <v>3340.18565085746</v>
+        <v>3696.675192315366</v>
       </c>
       <c r="AC2" t="n">
-        <v>3021.403020319502</v>
+        <v>3343.869700276867</v>
       </c>
       <c r="AD2" t="n">
-        <v>2441220.546563201</v>
+        <v>2701765.822847029</v>
       </c>
       <c r="AE2" t="n">
-        <v>3340185.65085746</v>
+        <v>3696675.192315366</v>
       </c>
       <c r="AF2" t="n">
         <v>3.351689283647504e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.59166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3021403.020319502</v>
+        <v>3343869.700276867</v>
       </c>
     </row>
     <row r="3">
@@ -7129,28 +7129,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1160.534652090339</v>
+        <v>1324.603189458648</v>
       </c>
       <c r="AB3" t="n">
-        <v>1587.894710165396</v>
+        <v>1812.380521185739</v>
       </c>
       <c r="AC3" t="n">
-        <v>1436.348267651433</v>
+        <v>1639.409467935808</v>
       </c>
       <c r="AD3" t="n">
-        <v>1160534.652090339</v>
+        <v>1324603.189458648</v>
       </c>
       <c r="AE3" t="n">
-        <v>1587894.710165396</v>
+        <v>1812380.521185739</v>
       </c>
       <c r="AF3" t="n">
         <v>5.25956744460298e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>33.5125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1436348.267651433</v>
+        <v>1639409.467935808</v>
       </c>
     </row>
     <row r="4">
@@ -7235,28 +7235,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>922.3752942075748</v>
+        <v>1067.141650709024</v>
       </c>
       <c r="AB4" t="n">
-        <v>1262.034569860865</v>
+        <v>1460.11028546705</v>
       </c>
       <c r="AC4" t="n">
-        <v>1141.587761789986</v>
+        <v>1320.75940909973</v>
       </c>
       <c r="AD4" t="n">
-        <v>922375.2942075748</v>
+        <v>1067141.650709024</v>
       </c>
       <c r="AE4" t="n">
-        <v>1262034.569860865</v>
+        <v>1460110.28546705</v>
       </c>
       <c r="AF4" t="n">
         <v>5.960109846940512e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.575</v>
       </c>
       <c r="AH4" t="n">
-        <v>1141587.761789986</v>
+        <v>1320759.40909973</v>
       </c>
     </row>
     <row r="5">
@@ -7341,28 +7341,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>864.9861001551416</v>
+        <v>1009.71829123781</v>
       </c>
       <c r="AB5" t="n">
-        <v>1183.512142725772</v>
+        <v>1381.541111698709</v>
       </c>
       <c r="AC5" t="n">
-        <v>1070.559404893748</v>
+        <v>1249.688767003312</v>
       </c>
       <c r="AD5" t="n">
-        <v>864986.1001551416</v>
+        <v>1009718.29123781</v>
       </c>
       <c r="AE5" t="n">
-        <v>1183512.142725772</v>
+        <v>1381541.111698709</v>
       </c>
       <c r="AF5" t="n">
         <v>6.140744874596385e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>28.70416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1070559.404893748</v>
+        <v>1249688.767003312</v>
       </c>
     </row>
     <row r="6">
@@ -7447,28 +7447,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>867.8670273647047</v>
+        <v>1012.599218447373</v>
       </c>
       <c r="AB6" t="n">
-        <v>1187.453954431434</v>
+        <v>1385.482923404371</v>
       </c>
       <c r="AC6" t="n">
-        <v>1074.12501562259</v>
+        <v>1253.254377732153</v>
       </c>
       <c r="AD6" t="n">
-        <v>867867.0273647046</v>
+        <v>1012599.218447373</v>
       </c>
       <c r="AE6" t="n">
-        <v>1187453.954431434</v>
+        <v>1385482.923404371</v>
       </c>
       <c r="AF6" t="n">
         <v>6.141167907448038e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>29</v>
+        <v>28.70416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1074125.01562259</v>
+        <v>1253254.377732153</v>
       </c>
     </row>
   </sheetData>
@@ -7744,28 +7744,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3886.262770899942</v>
+        <v>4218.063509464896</v>
       </c>
       <c r="AB2" t="n">
-        <v>5317.356172958736</v>
+        <v>5771.34058147882</v>
       </c>
       <c r="AC2" t="n">
-        <v>4809.875162767616</v>
+        <v>5220.531936509643</v>
       </c>
       <c r="AD2" t="n">
-        <v>3886262.770899942</v>
+        <v>4218063.509464896</v>
       </c>
       <c r="AE2" t="n">
-        <v>5317356.172958736</v>
+        <v>5771340.58147882</v>
       </c>
       <c r="AF2" t="n">
         <v>2.412340887126557e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>67</v>
+        <v>66.42083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4809875.162767615</v>
+        <v>5220531.936509643</v>
       </c>
     </row>
     <row r="3">
@@ -7850,28 +7850,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1468.954779085341</v>
+        <v>1654.414478225213</v>
       </c>
       <c r="AB3" t="n">
-        <v>2009.888734455659</v>
+        <v>2263.642876723308</v>
       </c>
       <c r="AC3" t="n">
-        <v>1818.067774535766</v>
+        <v>2047.603977611566</v>
       </c>
       <c r="AD3" t="n">
-        <v>1468954.779085341</v>
+        <v>1654414.478225213</v>
       </c>
       <c r="AE3" t="n">
-        <v>2009888.734455659</v>
+        <v>2263642.876723308</v>
       </c>
       <c r="AF3" t="n">
         <v>4.356288469531266e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>37</v>
+        <v>36.77916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1818067.774535766</v>
+        <v>2047603.977611566</v>
       </c>
     </row>
     <row r="4">
@@ -7956,28 +7956,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1138.286153360594</v>
+        <v>1294.491512988933</v>
       </c>
       <c r="AB4" t="n">
-        <v>1557.453332668869</v>
+        <v>1771.180397006466</v>
       </c>
       <c r="AC4" t="n">
-        <v>1408.812172498432</v>
+        <v>1602.141425783468</v>
       </c>
       <c r="AD4" t="n">
-        <v>1138286.153360595</v>
+        <v>1294491.512988933</v>
       </c>
       <c r="AE4" t="n">
-        <v>1557453.332668869</v>
+        <v>1771180.397006466</v>
       </c>
       <c r="AF4" t="n">
         <v>5.080798310332547e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>31.5375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1408812.172498432</v>
+        <v>1602141.425783468</v>
       </c>
     </row>
     <row r="5">
@@ -8062,28 +8062,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>992.3893910383302</v>
+        <v>1138.730430463413</v>
       </c>
       <c r="AB5" t="n">
-        <v>1357.83094594866</v>
+        <v>1558.061212201068</v>
       </c>
       <c r="AC5" t="n">
-        <v>1228.241466195021</v>
+        <v>1409.362036861243</v>
       </c>
       <c r="AD5" t="n">
-        <v>992389.3910383303</v>
+        <v>1138730.430463413</v>
       </c>
       <c r="AE5" t="n">
-        <v>1357830.94594866</v>
+        <v>1558061.212201068</v>
       </c>
       <c r="AF5" t="n">
         <v>5.471895182994385e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>29.28333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1228241.466195021</v>
+        <v>1409362.036861242</v>
       </c>
     </row>
     <row r="6">
@@ -8168,28 +8168,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>917.9671807610052</v>
+        <v>1054.579550628098</v>
       </c>
       <c r="AB6" t="n">
-        <v>1256.003194571028</v>
+        <v>1442.922265935584</v>
       </c>
       <c r="AC6" t="n">
-        <v>1136.132012492724</v>
+        <v>1305.211790028811</v>
       </c>
       <c r="AD6" t="n">
-        <v>917967.1807610053</v>
+        <v>1054579.550628098</v>
       </c>
       <c r="AE6" t="n">
-        <v>1256003.194571028</v>
+        <v>1442922.265935584</v>
       </c>
       <c r="AF6" t="n">
         <v>5.664943983462667e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>29</v>
+        <v>28.2875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1136132.012492724</v>
+        <v>1305211.790028811</v>
       </c>
     </row>
     <row r="7">
@@ -8274,28 +8274,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>917.8367226222829</v>
+        <v>1054.449092489375</v>
       </c>
       <c r="AB7" t="n">
-        <v>1255.824695990221</v>
+        <v>1442.743767354777</v>
       </c>
       <c r="AC7" t="n">
-        <v>1135.970549565944</v>
+        <v>1305.050327102032</v>
       </c>
       <c r="AD7" t="n">
-        <v>917836.7226222829</v>
+        <v>1054449.092489375</v>
       </c>
       <c r="AE7" t="n">
-        <v>1255824.695990221</v>
+        <v>1442743.767354777</v>
       </c>
       <c r="AF7" t="n">
         <v>5.678019001821076e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>29</v>
+        <v>28.22083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1135970.549565944</v>
+        <v>1305050.327102032</v>
       </c>
     </row>
   </sheetData>
@@ -8571,28 +8571,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1561.449777466231</v>
+        <v>1770.849935809984</v>
       </c>
       <c r="AB2" t="n">
-        <v>2136.444471831728</v>
+        <v>2422.955006560645</v>
       </c>
       <c r="AC2" t="n">
-        <v>1932.545209958756</v>
+        <v>2191.711581373206</v>
       </c>
       <c r="AD2" t="n">
-        <v>1561449.777466231</v>
+        <v>1770849.935809984</v>
       </c>
       <c r="AE2" t="n">
-        <v>2136444.471831728</v>
+        <v>2422955.006560645</v>
       </c>
       <c r="AF2" t="n">
         <v>4.685275029631564e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.63333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1932545.209958756</v>
+        <v>2191711.581373206</v>
       </c>
     </row>
     <row r="3">
@@ -8677,28 +8677,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>878.137031750513</v>
+        <v>1030.418738159029</v>
       </c>
       <c r="AB3" t="n">
-        <v>1201.505827512714</v>
+        <v>1409.864376415586</v>
       </c>
       <c r="AC3" t="n">
-        <v>1086.83579765892</v>
+        <v>1275.308899087562</v>
       </c>
       <c r="AD3" t="n">
-        <v>878137.031750513</v>
+        <v>1030418.738159029</v>
       </c>
       <c r="AE3" t="n">
-        <v>1201505.827512714</v>
+        <v>1409864.376415586</v>
       </c>
       <c r="AF3" t="n">
         <v>6.54778331676127e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.50416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1086835.79765892</v>
+        <v>1275308.899087562</v>
       </c>
     </row>
     <row r="4">
@@ -8783,28 +8783,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>828.5585690182296</v>
+        <v>971.3546988563205</v>
       </c>
       <c r="AB4" t="n">
-        <v>1133.670387554996</v>
+        <v>1329.050352120109</v>
       </c>
       <c r="AC4" t="n">
-        <v>1025.474476883129</v>
+        <v>1202.207651847649</v>
       </c>
       <c r="AD4" t="n">
-        <v>828558.5690182296</v>
+        <v>971354.6988563205</v>
       </c>
       <c r="AE4" t="n">
-        <v>1133670.387554996</v>
+        <v>1329050.352120109</v>
       </c>
       <c r="AF4" t="n">
         <v>6.749614974131054e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.59583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1025474.476883129</v>
+        <v>1202207.651847649</v>
       </c>
     </row>
   </sheetData>
@@ -9080,28 +9080,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1083.729050466367</v>
+        <v>1262.211133825391</v>
       </c>
       <c r="AB2" t="n">
-        <v>1482.805897599477</v>
+        <v>1727.012958125086</v>
       </c>
       <c r="AC2" t="n">
-        <v>1341.28898386373</v>
+        <v>1562.189265279537</v>
       </c>
       <c r="AD2" t="n">
-        <v>1083729.050466367</v>
+        <v>1262211.133825391</v>
       </c>
       <c r="AE2" t="n">
-        <v>1482805.897599477</v>
+        <v>1727012.958125086</v>
       </c>
       <c r="AF2" t="n">
         <v>6.231294822669675e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.45</v>
       </c>
       <c r="AH2" t="n">
-        <v>1341288.98386373</v>
+        <v>1562189.265279537</v>
       </c>
     </row>
     <row r="3">
@@ -9186,28 +9186,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>804.6419704741414</v>
+        <v>955.0227389537093</v>
       </c>
       <c r="AB3" t="n">
-        <v>1100.946642301114</v>
+        <v>1306.704244066137</v>
       </c>
       <c r="AC3" t="n">
-        <v>995.873839948212</v>
+        <v>1181.994224983389</v>
       </c>
       <c r="AD3" t="n">
-        <v>804641.9704741414</v>
+        <v>955022.7389537094</v>
       </c>
       <c r="AE3" t="n">
-        <v>1100946.642301114</v>
+        <v>1306704.244066137</v>
       </c>
       <c r="AF3" t="n">
         <v>7.355337332016615e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.87916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>995873.839948212</v>
+        <v>1181994.224983389</v>
       </c>
     </row>
   </sheetData>
@@ -16048,28 +16048,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>834.2103600045385</v>
+        <v>992.3103208781426</v>
       </c>
       <c r="AB2" t="n">
-        <v>1141.403417321885</v>
+        <v>1357.722758667161</v>
       </c>
       <c r="AC2" t="n">
-        <v>1032.469477142441</v>
+        <v>1228.143604155827</v>
       </c>
       <c r="AD2" t="n">
-        <v>834210.3600045386</v>
+        <v>992310.3208781426</v>
       </c>
       <c r="AE2" t="n">
-        <v>1141403.417321885</v>
+        <v>1357722.758667161</v>
       </c>
       <c r="AF2" t="n">
         <v>7.708157649899191e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.09166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1032469.477142441</v>
+        <v>1228143.604155827</v>
       </c>
     </row>
     <row r="3">
@@ -16154,28 +16154,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>807.1012976753938</v>
+        <v>965.1670931302169</v>
       </c>
       <c r="AB3" t="n">
-        <v>1104.311602275726</v>
+        <v>1320.584196987755</v>
       </c>
       <c r="AC3" t="n">
-        <v>998.9176528655985</v>
+        <v>1194.549494678804</v>
       </c>
       <c r="AD3" t="n">
-        <v>807101.2976753938</v>
+        <v>965167.0931302169</v>
       </c>
       <c r="AE3" t="n">
-        <v>1104311.602275726</v>
+        <v>1320584.196987755</v>
       </c>
       <c r="AF3" t="n">
         <v>7.855696844055786e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.47083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>998917.6528655984</v>
+        <v>1194549.494678804</v>
       </c>
     </row>
   </sheetData>
@@ -16451,28 +16451,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>875.3556167379587</v>
+        <v>1057.608440555253</v>
       </c>
       <c r="AB2" t="n">
-        <v>1197.700172785167</v>
+        <v>1447.066526759111</v>
       </c>
       <c r="AC2" t="n">
-        <v>1083.3933492773</v>
+        <v>1308.960528415847</v>
       </c>
       <c r="AD2" t="n">
-        <v>875355.6167379587</v>
+        <v>1057608.440555253</v>
       </c>
       <c r="AE2" t="n">
-        <v>1197700.172785167</v>
+        <v>1447066.52675911</v>
       </c>
       <c r="AF2" t="n">
         <v>8.614241515784452e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.16666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1083393.3492773</v>
+        <v>1308960.528415846</v>
       </c>
     </row>
   </sheetData>
@@ -16748,28 +16748,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2183.373457944363</v>
+        <v>2433.436442104451</v>
       </c>
       <c r="AB2" t="n">
-        <v>2987.38788879826</v>
+        <v>3329.535095726545</v>
       </c>
       <c r="AC2" t="n">
-        <v>2702.275781516589</v>
+        <v>3011.768939222134</v>
       </c>
       <c r="AD2" t="n">
-        <v>2183373.457944363</v>
+        <v>2433436.442104451</v>
       </c>
       <c r="AE2" t="n">
-        <v>2987387.88879826</v>
+        <v>3329535.095726545</v>
       </c>
       <c r="AF2" t="n">
         <v>3.635487598454916e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>50</v>
+        <v>49.85</v>
       </c>
       <c r="AH2" t="n">
-        <v>2702275.781516589</v>
+        <v>3011768.939222134</v>
       </c>
     </row>
     <row r="3">
@@ -16854,28 +16854,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1084.943839750464</v>
+        <v>1248.457072599376</v>
       </c>
       <c r="AB3" t="n">
-        <v>1484.468025890699</v>
+        <v>1708.194044769296</v>
       </c>
       <c r="AC3" t="n">
-        <v>1342.79248096365</v>
+        <v>1545.166402601913</v>
       </c>
       <c r="AD3" t="n">
-        <v>1084943.839750464</v>
+        <v>1248457.072599376</v>
       </c>
       <c r="AE3" t="n">
-        <v>1484468.025890699</v>
+        <v>1708194.044769296</v>
       </c>
       <c r="AF3" t="n">
         <v>5.538485713224031e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.72083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1342792.48096365</v>
+        <v>1545166.402601913</v>
       </c>
     </row>
     <row r="4">
@@ -16960,28 +16960,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>876.8774007505949</v>
+        <v>1021.082443407368</v>
       </c>
       <c r="AB4" t="n">
-        <v>1199.782344807628</v>
+        <v>1397.090046048108</v>
       </c>
       <c r="AC4" t="n">
-        <v>1085.276801724284</v>
+        <v>1263.75373288147</v>
       </c>
       <c r="AD4" t="n">
-        <v>876877.4007505949</v>
+        <v>1021082.443407368</v>
       </c>
       <c r="AE4" t="n">
-        <v>1199782.344807628</v>
+        <v>1397090.046048108</v>
       </c>
       <c r="AF4" t="n">
         <v>6.215300585585343e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.1625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1085276.801724284</v>
+        <v>1263753.73288147</v>
       </c>
     </row>
     <row r="5">
@@ -17066,28 +17066,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>855.1025524796763</v>
+        <v>999.3749149441535</v>
       </c>
       <c r="AB5" t="n">
-        <v>1169.98903676485</v>
+        <v>1367.388847936171</v>
       </c>
       <c r="AC5" t="n">
-        <v>1058.326925185939</v>
+        <v>1236.887175431444</v>
       </c>
       <c r="AD5" t="n">
-        <v>855102.5524796763</v>
+        <v>999374.9149441535</v>
       </c>
       <c r="AE5" t="n">
-        <v>1169989.03676485</v>
+        <v>1367388.847936171</v>
       </c>
       <c r="AF5" t="n">
         <v>6.274021670269647e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>28.8875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1058326.925185939</v>
+        <v>1236887.175431444</v>
       </c>
     </row>
   </sheetData>
@@ -17363,28 +17363,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3442.148529202091</v>
+        <v>3753.575399931543</v>
       </c>
       <c r="AB2" t="n">
-        <v>4709.699474530157</v>
+        <v>5135.807458246091</v>
       </c>
       <c r="AC2" t="n">
-        <v>4260.212366785549</v>
+        <v>4645.65320258193</v>
       </c>
       <c r="AD2" t="n">
-        <v>3442148.529202091</v>
+        <v>3753575.399931543</v>
       </c>
       <c r="AE2" t="n">
-        <v>4709699.474530158</v>
+        <v>5135807.458246091</v>
       </c>
       <c r="AF2" t="n">
         <v>2.623530897239652e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>63</v>
+        <v>62.42499999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>4260212.366785549</v>
+        <v>4645653.20258193</v>
       </c>
     </row>
     <row r="3">
@@ -17469,28 +17469,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1385.505160455277</v>
+        <v>1570.427076683954</v>
       </c>
       <c r="AB3" t="n">
-        <v>1895.709284708662</v>
+        <v>2148.727608671906</v>
       </c>
       <c r="AC3" t="n">
-        <v>1714.785451220758</v>
+        <v>1943.656061458399</v>
       </c>
       <c r="AD3" t="n">
-        <v>1385505.160455277</v>
+        <v>1570427.076683954</v>
       </c>
       <c r="AE3" t="n">
-        <v>1895709.284708662</v>
+        <v>2148727.608671906</v>
       </c>
       <c r="AF3" t="n">
         <v>4.55845862864202e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>36</v>
+        <v>35.925</v>
       </c>
       <c r="AH3" t="n">
-        <v>1714785.451220758</v>
+        <v>1943656.061458399</v>
       </c>
     </row>
     <row r="4">
@@ -17575,28 +17575,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1088.928510841503</v>
+        <v>1244.608286302376</v>
       </c>
       <c r="AB4" t="n">
-        <v>1489.920028668741</v>
+        <v>1702.927965561275</v>
       </c>
       <c r="AC4" t="n">
-        <v>1347.724152248489</v>
+        <v>1540.402910602516</v>
       </c>
       <c r="AD4" t="n">
-        <v>1088928.510841503</v>
+        <v>1244608.286302377</v>
       </c>
       <c r="AE4" t="n">
-        <v>1489920.028668741</v>
+        <v>1702927.965561274</v>
       </c>
       <c r="AF4" t="n">
         <v>5.276539669729189e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>31.0375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1347724.152248489</v>
+        <v>1540402.910602516</v>
       </c>
     </row>
     <row r="5">
@@ -17681,28 +17681,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>939.0538785395042</v>
+        <v>1085.064645015122</v>
       </c>
       <c r="AB5" t="n">
-        <v>1284.85494475102</v>
+        <v>1484.633316983357</v>
       </c>
       <c r="AC5" t="n">
-        <v>1162.230192129223</v>
+        <v>1342.941996906412</v>
       </c>
       <c r="AD5" t="n">
-        <v>939053.8785395043</v>
+        <v>1085064.645015122</v>
       </c>
       <c r="AE5" t="n">
-        <v>1284854.944751021</v>
+        <v>1484633.316983357</v>
       </c>
       <c r="AF5" t="n">
         <v>5.665647623027654e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>28.90416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1162230.192129223</v>
+        <v>1342941.996906412</v>
       </c>
     </row>
     <row r="6">
@@ -17787,28 +17787,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>904.2769022684416</v>
+        <v>1040.518185562176</v>
       </c>
       <c r="AB6" t="n">
-        <v>1237.271551565042</v>
+        <v>1423.682885908745</v>
       </c>
       <c r="AC6" t="n">
-        <v>1119.188091205202</v>
+        <v>1287.808589429094</v>
       </c>
       <c r="AD6" t="n">
-        <v>904276.9022684416</v>
+        <v>1040518.185562176</v>
       </c>
       <c r="AE6" t="n">
-        <v>1237271.551565042</v>
+        <v>1423682.885908745</v>
       </c>
       <c r="AF6" t="n">
         <v>5.778056587313877e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>29</v>
+        <v>28.34166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1119188.091205203</v>
+        <v>1287808.589429094</v>
       </c>
     </row>
     <row r="7">
@@ -17893,28 +17893,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>906.8837069415089</v>
+        <v>1043.124990235244</v>
       </c>
       <c r="AB7" t="n">
-        <v>1240.838296722838</v>
+        <v>1427.249631066542</v>
       </c>
       <c r="AC7" t="n">
-        <v>1122.414431211097</v>
+        <v>1291.034929434989</v>
       </c>
       <c r="AD7" t="n">
-        <v>906883.7069415089</v>
+        <v>1043124.990235243</v>
       </c>
       <c r="AE7" t="n">
-        <v>1240838.296722838</v>
+        <v>1427249.631066542</v>
       </c>
       <c r="AF7" t="n">
         <v>5.777663548977212e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>29</v>
+        <v>28.34583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1122414.431211097</v>
+        <v>1291034.929434989</v>
       </c>
     </row>
   </sheetData>
@@ -18190,28 +18190,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>978.9610945128759</v>
+        <v>1195.537508453301</v>
       </c>
       <c r="AB2" t="n">
-        <v>1339.457758227901</v>
+        <v>1635.787162458239</v>
       </c>
       <c r="AC2" t="n">
-        <v>1211.6217897234</v>
+        <v>1479.669931514925</v>
       </c>
       <c r="AD2" t="n">
-        <v>978961.0945128759</v>
+        <v>1195537.508453301</v>
       </c>
       <c r="AE2" t="n">
-        <v>1339457.758227901</v>
+        <v>1635787.162458238</v>
       </c>
       <c r="AF2" t="n">
         <v>8.546714803923087e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.49166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1211621.7897234</v>
+        <v>1479669.931514925</v>
       </c>
     </row>
   </sheetData>
@@ -18487,28 +18487,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1233.448202474771</v>
+        <v>1422.174709039795</v>
       </c>
       <c r="AB2" t="n">
-        <v>1687.658246520193</v>
+        <v>1945.882178828308</v>
       </c>
       <c r="AC2" t="n">
-        <v>1526.590512115531</v>
+        <v>1760.169914743724</v>
       </c>
       <c r="AD2" t="n">
-        <v>1233448.202474771</v>
+        <v>1422174.709039795</v>
       </c>
       <c r="AE2" t="n">
-        <v>1687658.246520193</v>
+        <v>1945882.178828308</v>
       </c>
       <c r="AF2" t="n">
         <v>5.631311182122547e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.4625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1526590.512115531</v>
+        <v>1760169.914743724</v>
       </c>
     </row>
     <row r="3">
@@ -18593,28 +18593,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>812.4921211300673</v>
+        <v>954.0714192300808</v>
       </c>
       <c r="AB3" t="n">
-        <v>1111.687564752756</v>
+        <v>1305.402606451004</v>
       </c>
       <c r="AC3" t="n">
-        <v>1005.589663836049</v>
+        <v>1180.816813835384</v>
       </c>
       <c r="AD3" t="n">
-        <v>812492.1211300673</v>
+        <v>954071.4192300808</v>
       </c>
       <c r="AE3" t="n">
-        <v>1111687.564752756</v>
+        <v>1305402.606451004</v>
       </c>
       <c r="AF3" t="n">
         <v>7.142455057912287e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.325</v>
       </c>
       <c r="AH3" t="n">
-        <v>1005589.663836049</v>
+        <v>1180816.813835384</v>
       </c>
     </row>
     <row r="4">
@@ -18699,28 +18699,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>816.5414819771883</v>
+        <v>958.1207800772017</v>
       </c>
       <c r="AB4" t="n">
-        <v>1117.22807890898</v>
+        <v>1310.943120607227</v>
       </c>
       <c r="AC4" t="n">
-        <v>1010.601399097363</v>
+        <v>1185.828549096698</v>
       </c>
       <c r="AD4" t="n">
-        <v>816541.4819771883</v>
+        <v>958120.7800772018</v>
       </c>
       <c r="AE4" t="n">
-        <v>1117228.07890898</v>
+        <v>1310943.120607227</v>
       </c>
       <c r="AF4" t="n">
         <v>7.139336081904465e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>31</v>
+        <v>30.3375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1010601.399097363</v>
+        <v>1185828.549096698</v>
       </c>
     </row>
   </sheetData>
@@ -18996,28 +18996,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1747.59874962944</v>
+        <v>1976.81500415203</v>
       </c>
       <c r="AB2" t="n">
-        <v>2391.141707858485</v>
+        <v>2704.765499603752</v>
       </c>
       <c r="AC2" t="n">
-        <v>2162.934499248935</v>
+        <v>2446.62647648379</v>
       </c>
       <c r="AD2" t="n">
-        <v>1747598.74962944</v>
+        <v>1976815.00415203</v>
       </c>
       <c r="AE2" t="n">
-        <v>2391141.707858486</v>
+        <v>2704765.499603752</v>
       </c>
       <c r="AF2" t="n">
         <v>4.295024729888052e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>45</v>
+        <v>44.90416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2162934.499248935</v>
+        <v>2446626.47648379</v>
       </c>
     </row>
     <row r="3">
@@ -19102,28 +19102,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>950.3172110563629</v>
+        <v>1103.094893015833</v>
       </c>
       <c r="AB3" t="n">
-        <v>1300.265933203747</v>
+        <v>1509.303097736332</v>
       </c>
       <c r="AC3" t="n">
-        <v>1176.17037747348</v>
+        <v>1365.257328408577</v>
       </c>
       <c r="AD3" t="n">
-        <v>950317.211056363</v>
+        <v>1103094.893015833</v>
       </c>
       <c r="AE3" t="n">
-        <v>1300265.933203747</v>
+        <v>1509303.097736332</v>
       </c>
       <c r="AF3" t="n">
         <v>6.173374805745981e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.24166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1176170.37747348</v>
+        <v>1365257.328408577</v>
       </c>
     </row>
     <row r="4">
@@ -19208,28 +19208,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>838.4868047949602</v>
+        <v>981.7095388053077</v>
       </c>
       <c r="AB4" t="n">
-        <v>1147.254637747569</v>
+        <v>1343.21830096161</v>
       </c>
       <c r="AC4" t="n">
-        <v>1037.762265302937</v>
+        <v>1215.023431536559</v>
       </c>
       <c r="AD4" t="n">
-        <v>838486.8047949602</v>
+        <v>981709.5388053077</v>
       </c>
       <c r="AE4" t="n">
-        <v>1147254.637747569</v>
+        <v>1343218.30096161</v>
       </c>
       <c r="AF4" t="n">
         <v>6.581631278616038e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.30416666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1037762.265302937</v>
+        <v>1215023.431536559</v>
       </c>
     </row>
   </sheetData>
